--- a/MVPLT/data/曹越奇-权重.xlsx
+++ b/MVPLT/data/曹越奇-权重.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Equity</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Commodity</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
   <si>
     <t>Real Estate</t>
@@ -389,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,22 +411,48 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43052</v>
       </c>
       <c r="B2">
-        <v>0.0591845703088063</v>
+        <v>0.1622115572025113</v>
       </c>
       <c r="C2">
-        <v>0.3633793166129607</v>
+        <v>0.6019702629529499</v>
       </c>
       <c r="D2">
-        <v>0.03771980069452292</v>
+        <v>0.03469974202496444</v>
       </c>
       <c r="E2">
-        <v>0.53971631238371</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.2011184378195746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B3">
+        <v>0.03885811239485624</v>
+      </c>
+      <c r="C3">
+        <v>0.4644244600369118</v>
+      </c>
+      <c r="D3">
+        <v>0.03079630884514169</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.06592111872309019</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/曹越奇-权重.xlsx
+++ b/MVPLT/data/曹越奇-权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,6 +455,26 @@
         <v>0.06592111872309019</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B4">
+        <v>0.0867687127695843</v>
+      </c>
+      <c r="C4">
+        <v>0.6245042455260362</v>
+      </c>
+      <c r="D4">
+        <v>0.04658229461489671</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.2421447470894827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/曹越奇-权重.xlsx
+++ b/MVPLT/data/曹越奇-权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +475,26 @@
         <v>0.2421447470894827</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B5">
+        <v>0.1194287817795524</v>
+      </c>
+      <c r="C5">
+        <v>0.7463212652916776</v>
+      </c>
+      <c r="D5">
+        <v>0.03424995292877016</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
